--- a/_site/foodrecs.xlsx
+++ b/_site/foodrecs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wessilfie/Desktop/food-recs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D7C029-A785-B44E-B871-50B41045C953}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F69A7-D732-8540-B521-C87E87966710}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14780" xr2:uid="{5BADDB67-1CB8-7340-AD36-AF33C5102197}"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14780" activeTab="1" xr2:uid="{5BADDB67-1CB8-7340-AD36-AF33C5102197}"/>
   </bookViews>
   <sheets>
     <sheet name="NYC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="305">
   <si>
     <t>Sarabeth's</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Il Salumaio</t>
   </si>
   <si>
-    <t>Zampa</t>
-  </si>
-  <si>
     <t>Elephant &amp; Castle</t>
   </si>
   <si>
@@ -88,18 +85,12 @@
     <t>Bluestone Lane</t>
   </si>
   <si>
-    <t>El Rey Coffeebar &amp; Luncheonette</t>
-  </si>
-  <si>
     <t>Jack’s Wife Freda</t>
   </si>
   <si>
     <t>Maharlika</t>
   </si>
   <si>
-    <t>PIZZA</t>
-  </si>
-  <si>
     <t>Motorino</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>popbar</t>
   </si>
   <si>
-    <t>DONUTS</t>
-  </si>
-  <si>
     <t>Doughnut Plant</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>Dun Well Doughnuts</t>
   </si>
   <si>
-    <t>CAKES/CUPCAKES/PIE</t>
-  </si>
-  <si>
     <t>Lady M Confections</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>Petee’s Pie Co.</t>
   </si>
   <si>
-    <t>COFFEE SHOPS</t>
-  </si>
-  <si>
     <t>La Colombe Torrefaction</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t xml:space="preserve">Coffee RX </t>
   </si>
   <si>
-    <t>FUSION</t>
-  </si>
-  <si>
     <t>Red Farm</t>
   </si>
   <si>
@@ -241,12 +220,6 @@
     <t>Perilla</t>
   </si>
   <si>
-    <t>DUMPLINGS (including soup)</t>
-  </si>
-  <si>
-    <t>Prosperity Dumpling</t>
-  </si>
-  <si>
     <t>Tasty Dumpling</t>
   </si>
   <si>
@@ -265,29 +238,12 @@
     <t>Shanghai Cafe Deluxe</t>
   </si>
   <si>
-    <t>NOODLES</t>
-  </si>
-  <si>
     <t>Tasty Hand-Pulled Noodles</t>
   </si>
   <si>
     <t>Lam Zhou Handmade Noodle</t>
   </si>
   <si>
-    <r>
-      <t>Big Wong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (roast duck noodle soup)</t>
-    </r>
-  </si>
-  <si>
     <t>Pho Grand</t>
   </si>
   <si>
@@ -321,36 +277,9 @@
     <t>Noodle Village</t>
   </si>
   <si>
-    <r>
-      <t>Spicy Village (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>da pan ji</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Zen 6</t>
   </si>
   <si>
-    <t>PASTA</t>
-  </si>
-  <si>
     <t>Pepe Rosso To-Go</t>
   </si>
   <si>
@@ -363,18 +292,12 @@
     <t>Osteria Morini</t>
   </si>
   <si>
-    <t>BREAD</t>
-  </si>
-  <si>
     <t>Balthazar Bakery</t>
   </si>
   <si>
     <t>Parisi Bakery</t>
   </si>
   <si>
-    <t>SANDWICHES</t>
-  </si>
-  <si>
     <t>Cheeky Sandwiches</t>
   </si>
   <si>
@@ -435,9 +358,6 @@
     <t>Mille Feuille</t>
   </si>
   <si>
-    <t>VIENNOISERIES</t>
-  </si>
-  <si>
     <t>Arcade Bakery</t>
   </si>
   <si>
@@ -453,9 +373,6 @@
     <t>Dominique Ansel Bakery</t>
   </si>
   <si>
-    <t>DIM SUM</t>
-  </si>
-  <si>
     <t>Jing Fong</t>
   </si>
   <si>
@@ -465,9 +382,6 @@
     <t>Nom Wah Tea Parlor</t>
   </si>
   <si>
-    <t>CHINESE BAKED GOODS</t>
-  </si>
-  <si>
     <t>Tai Pan</t>
   </si>
   <si>
@@ -486,9 +400,6 @@
     <t>Mei Li Wah</t>
   </si>
   <si>
-    <t>THAI</t>
-  </si>
-  <si>
     <t>East Village Thai</t>
   </si>
   <si>
@@ -528,9 +439,6 @@
     <t>Chobani Soho</t>
   </si>
   <si>
-    <t>INDIAN</t>
-  </si>
-  <si>
     <t>NYC Dosa</t>
   </si>
   <si>
@@ -543,9 +451,6 @@
     <t>Milon Bangladesh</t>
   </si>
   <si>
-    <t>BAGELS</t>
-  </si>
-  <si>
     <t>Ess-A-Bagel</t>
   </si>
   <si>
@@ -579,9 +484,6 @@
     <t>Tal Bagels</t>
   </si>
   <si>
-    <t>COOKIES</t>
-  </si>
-  <si>
     <t>Levain Bakery</t>
   </si>
   <si>
@@ -591,9 +493,6 @@
     <t>Jacques Torres</t>
   </si>
   <si>
-    <t>SUSHI</t>
-  </si>
-  <si>
     <t>Momoya</t>
   </si>
   <si>
@@ -609,9 +508,6 @@
     <t>Masakari (Sheepshead Bay)</t>
   </si>
   <si>
-    <t>BOBA</t>
-  </si>
-  <si>
     <t>Vivi’s Bubble Tea</t>
   </si>
   <si>
@@ -639,60 +535,6 @@
     <t>Pa Tea</t>
   </si>
   <si>
-    <t>~~~ Sectionless ~~~ ℅ S.K.</t>
-  </si>
-  <si>
-    <t>1. Pies ‘n’ Thighs</t>
-  </si>
-  <si>
-    <t>2. S’mac</t>
-  </si>
-  <si>
-    <t>3. Potatopia</t>
-  </si>
-  <si>
-    <t>4. Kobeyaki</t>
-  </si>
-  <si>
-    <t>5. East Japanese Market - sushi on a conveyor belt!! :o</t>
-  </si>
-  <si>
-    <t>6. Minca</t>
-  </si>
-  <si>
-    <t>7. Nippori</t>
-  </si>
-  <si>
-    <t>8. Milk and Honey - New Kirk, Brooklyn</t>
-  </si>
-  <si>
-    <t>9. Hong Kong station - create your own noodles!</t>
-  </si>
-  <si>
-    <t>10. Anything in eataly!!!</t>
-  </si>
-  <si>
-    <t>11. Two Hands - acai bowl is amazing</t>
-  </si>
-  <si>
-    <t>12. Little Choc Apothecary</t>
-  </si>
-  <si>
-    <t>13. Cotton Candy Machine - Williamsburg</t>
-  </si>
-  <si>
-    <t>14. ROLL N ROASTER!! - amazing roast beef in sheepshead bay</t>
-  </si>
-  <si>
-    <t>22. Play J ice cream truck - usually around St. Marks</t>
-  </si>
-  <si>
-    <t>23. Hirokos Place</t>
-  </si>
-  <si>
-    <t>24. Mac Bar - not as good as S’mac but still good.</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -816,24 +658,6 @@
     <t>Black Sands Brewery</t>
   </si>
   <si>
-    <t>Coffee spots:</t>
-  </si>
-  <si>
-    <t>Pizza:</t>
-  </si>
-  <si>
-    <t>Food:</t>
-  </si>
-  <si>
-    <t>Dim sum:</t>
-  </si>
-  <si>
-    <t>The best dim sum places are in South Bay (not in SF), but a solid one is Hong Kong Lounge II. Definitely don't go to Chinatown though - generally overpriced and not as good. My family's favorite dim sum spot is in Millbrae and it's called Hong Kong Flower Lounge Restaurant. It's where they'd take guests in the area because it's so good.</t>
-  </si>
-  <si>
-    <t>Dessert:</t>
-  </si>
-  <si>
     <t>The place for real connoisseurs (which I am def not since I don't drink coffee.) Jack Dorsey swears by this place. Also, the affogato is really, really good.</t>
   </si>
   <si>
@@ -888,9 +712,6 @@
     <t>Cotogna</t>
   </si>
   <si>
-    <t>you have to try their famous donut burger (or chicken + waffles) at least once! This place is extremely extra but you have to go. It's carnival themed and the guest book they give you to sign is super fun!</t>
-  </si>
-  <si>
     <t>Straw</t>
   </si>
   <si>
@@ -988,13 +809,145 @@
   </si>
   <si>
     <t>The Boba Guys</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>You have to try their famous donut burger (or chicken + waffles) at least once! This place is extremely extra but you have to go. It's carnival themed and the guest book they give you to sign is super fun!</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>The Handpulled Noodle</t>
+  </si>
+  <si>
+    <t>Big Wong (roast duck noodle soup)</t>
+  </si>
+  <si>
+    <t>Spicy Village (da pan ji)</t>
+  </si>
+  <si>
+    <t>Kossar's</t>
+  </si>
+  <si>
+    <t>Pies ‘n’ Thighs</t>
+  </si>
+  <si>
+    <t>S’mac</t>
+  </si>
+  <si>
+    <t>Potatopia</t>
+  </si>
+  <si>
+    <t>Kobeyaki</t>
+  </si>
+  <si>
+    <t>East Japanese Market</t>
+  </si>
+  <si>
+    <t>Minca</t>
+  </si>
+  <si>
+    <t>Nippori</t>
+  </si>
+  <si>
+    <t>Milk and Honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong Station </t>
+  </si>
+  <si>
+    <t>Eataly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Hands </t>
+  </si>
+  <si>
+    <t>Little Choc Apothecary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton Candy Machine </t>
+  </si>
+  <si>
+    <t>Roll-N-Roaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play J ice cream truck </t>
+  </si>
+  <si>
+    <t>Hirokos Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac Bar </t>
+  </si>
+  <si>
+    <t>Sushi on a conveyor belt!! :o</t>
+  </si>
+  <si>
+    <t>Create your own noodles!</t>
+  </si>
+  <si>
+    <t>Acai bowl is amazing</t>
+  </si>
+  <si>
+    <t>Amazing roast beef in sheepshead bay</t>
+  </si>
+  <si>
+    <t>Usually around St. Marks</t>
+  </si>
+  <si>
+    <t>Not as good as S’mac but still good.</t>
+  </si>
+  <si>
+    <t>Get a bialy!</t>
+  </si>
+  <si>
+    <t>Good brunch and popular spot for celebrities to visit.</t>
+  </si>
+  <si>
+    <t>Get their crepe cake!</t>
+  </si>
+  <si>
+    <t>Some amazing soup dumplings.</t>
+  </si>
+  <si>
+    <t>Super small store in Uptown Manhattan. If you visit the store, you can see them make the noodles.</t>
+  </si>
+  <si>
+    <t>Ichiran</t>
+  </si>
+  <si>
+    <t>Some of the best ramen in the city! Definitely go to the Brooklyn location if you want to eat with a group.</t>
+  </si>
+  <si>
+    <t>They fly in their treats from Europe to keep consistent flavors worldwide.</t>
+  </si>
+  <si>
+    <t>Amazing chocolate chip walnut cookies. Almost like a meal.</t>
+  </si>
+  <si>
+    <t>Some of the best chocolate in the city.</t>
+  </si>
+  <si>
+    <t>Italian everything! (including a great Nutella café)</t>
+  </si>
+  <si>
+    <t>Try their soft serve boba!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1009,19 +962,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Garamond"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1051,11 +991,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,1685 +1309,1621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE76BC-D397-784D-8E0D-6FE0421DF4C4}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>211</v>
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
+      <c r="A27" t="s">
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
+      <c r="A28" t="s">
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
+      <c r="A29" t="s">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
+      <c r="A30" t="s">
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
+      <c r="A31" t="s">
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
+      <c r="A32" t="s">
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
+      <c r="A33" t="s">
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>217</v>
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
+      <c r="A36" t="s">
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
+      <c r="A37" t="s">
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
+      <c r="A38" t="s">
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
+      <c r="A39" t="s">
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>35</v>
+      <c r="A40" t="s">
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
+      <c r="A41" t="s">
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>37</v>
+      <c r="A42" t="s">
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
+      <c r="A43" t="s">
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>39</v>
+      <c r="A44" t="s">
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>40</v>
+      <c r="A45" t="s">
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>41</v>
+      <c r="A46" t="s">
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>42</v>
+      <c r="A47" t="s">
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>43</v>
+      <c r="A48" t="s">
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>50</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>53</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>54</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>55</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>61</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>63</v>
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>64</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>65</v>
+        <v>177</v>
+      </c>
+      <c r="D72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>69</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>70</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>72</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>73</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>298</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>74</v>
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>268</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>81</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>84</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>85</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>86</v>
+      <c r="A97" t="s">
+        <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>87</v>
+      <c r="A98" t="s">
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>88</v>
+      <c r="A99" t="s">
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>89</v>
       </c>
-      <c r="B100" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>92</v>
+      <c r="A103" t="s">
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>93</v>
+      <c r="A104" t="s">
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>94</v>
+      <c r="A105" t="s">
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>95</v>
+      <c r="A106" t="s">
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>96</v>
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>97</v>
+      <c r="A109" t="s">
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>98</v>
+      <c r="A110" t="s">
+        <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>99</v>
+      <c r="A111" t="s">
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>100</v>
+      <c r="A112" t="s">
+        <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>102</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>105</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>106</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>113</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>107</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>114</v>
       </c>
       <c r="B121" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>108</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>109</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>103</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>118</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>111</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>112</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>120</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>113</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>121</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>114</v>
+      <c r="A129" t="s">
+        <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>115</v>
+      <c r="A130" t="s">
+        <v>123</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>116</v>
+      <c r="A131" t="s">
+        <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>117</v>
+      <c r="A132" t="s">
+        <v>125</v>
       </c>
       <c r="B132" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>118</v>
+      <c r="A133" t="s">
+        <v>126</v>
       </c>
       <c r="B133" t="s">
-        <v>222</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>127</v>
+      </c>
+      <c r="B134" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>238</v>
+      <c r="A135" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>119</v>
+      <c r="A136" t="s">
+        <v>129</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>120</v>
+      <c r="A137" t="s">
+        <v>130</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>121</v>
+      <c r="A138" t="s">
+        <v>131</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>122</v>
+      <c r="A139" t="s">
+        <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>123</v>
+      <c r="A140" t="s">
+        <v>133</v>
       </c>
       <c r="B140" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>124</v>
+      <c r="A141" t="s">
+        <v>134</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>125</v>
+      <c r="A143" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>126</v>
+      <c r="A144" t="s">
+        <v>137</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>127</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>138</v>
       </c>
       <c r="B145" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>128</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>139</v>
       </c>
       <c r="B146" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>129</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>140</v>
       </c>
       <c r="B147" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>130</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>141</v>
       </c>
       <c r="B148" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>132</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>144</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>133</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>145</v>
       </c>
       <c r="B152" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>134</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>146</v>
       </c>
       <c r="B153" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>136</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>149</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>137</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>150</v>
       </c>
       <c r="B157" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>138</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>139</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>187</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>140</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>141</v>
+        <v>186</v>
+      </c>
+      <c r="D160" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>143</v>
+        <v>188</v>
+      </c>
+      <c r="D161" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163" t="s">
+        <v>188</v>
+      </c>
+      <c r="D163" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>156</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>145</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>157</v>
       </c>
       <c r="B166" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>158</v>
       </c>
       <c r="B167" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>147</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>159</v>
       </c>
       <c r="B168" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>160</v>
       </c>
       <c r="B169" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>161</v>
       </c>
       <c r="B170" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>162</v>
       </c>
       <c r="B171" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>151</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>165</v>
       </c>
       <c r="B174" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>152</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>166</v>
       </c>
       <c r="B175" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>153</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>167</v>
       </c>
       <c r="B176" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>154</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>168</v>
       </c>
       <c r="B177" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>155</v>
+        <v>190</v>
+      </c>
+      <c r="D177" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>270</v>
       </c>
       <c r="B178" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>157</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>271</v>
+      </c>
+      <c r="B179" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>272</v>
+      </c>
+      <c r="B180" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>273</v>
       </c>
       <c r="B181" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>158</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>274</v>
       </c>
       <c r="B182" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>159</v>
+        <v>191</v>
+      </c>
+      <c r="D182" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>275</v>
       </c>
       <c r="B183" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>160</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>276</v>
       </c>
       <c r="B184" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>162</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>277</v>
+      </c>
+      <c r="B185" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>278</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>279</v>
       </c>
       <c r="B187" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>163</v>
+        <v>191</v>
+      </c>
+      <c r="D187" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>280</v>
       </c>
       <c r="B188" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
+      </c>
+      <c r="D188" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>281</v>
       </c>
       <c r="B189" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>165</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>282</v>
       </c>
       <c r="B190" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>166</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>283</v>
       </c>
       <c r="B191" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>167</v>
+        <v>191</v>
+      </c>
+      <c r="D191" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>284</v>
       </c>
       <c r="B192" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
-        <v>168</v>
+        <v>191</v>
+      </c>
+      <c r="D192" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>285</v>
       </c>
       <c r="B193" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B195" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B196" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B197" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B198" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B201" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B202" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B203" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B206" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B207" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B208" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B209" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B210" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B213" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B214" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B215" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B216" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B217" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B218" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B219" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B220" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B221" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B225" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B226" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B227" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B228" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B229" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B230" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B231" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B232" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B233" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B235" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B236" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B237" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B238" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B239" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B240" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B241" t="s">
-        <v>233</v>
+      <c r="D194" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3060,345 +2934,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8101A1C7-FA75-A640-9561-C4C83802E7DD}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>211</v>
+      <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>212</v>
       </c>
-      <c r="D7" t="s">
-        <v>250</v>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
         <v>262</v>
       </c>
-      <c r="B14" t="s">
-        <v>216</v>
-      </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" t="s">
         <v>265</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>228</v>
+      </c>
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>265</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>231</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>233</v>
+      </c>
+      <c r="B20" t="s">
+        <v>264</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>237</v>
+      </c>
+      <c r="B22" t="s">
+        <v>264</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>239</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>242</v>
+      </c>
+      <c r="B24" t="s">
+        <v>264</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>245</v>
+      </c>
+      <c r="B26" t="s">
+        <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>247</v>
+      </c>
+      <c r="B27" t="s">
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>249</v>
+      </c>
+      <c r="B28" t="s">
+        <v>261</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>250</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>254</v>
+      </c>
+      <c r="B30" t="s">
+        <v>261</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
+        <v>261</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>258</v>
+      </c>
+      <c r="B32" t="s">
+        <v>261</v>
       </c>
       <c r="D32" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>296</v>
-      </c>
-      <c r="D34" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>303</v>
-      </c>
-      <c r="D42" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>307</v>
-      </c>
-      <c r="D44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>309</v>
-      </c>
-      <c r="D45" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
